--- a/src/templates/uy-nhiem-chi/Mẫu ủy nhiệm chi.xlsx
+++ b/src/templates/uy-nhiem-chi/Mẫu ủy nhiệm chi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A939529-23D4-42C1-9302-7F322DE2CB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5312AA81-BA7C-45FA-A6F0-0DCA00E3D205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{16A6A124-4DC9-45A2-AB96-306914B9265C}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t xml:space="preserve">                   ỦY NHIỆM CHI</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>Học Viện Kỹ Thuật Mật Mã</t>
+  </si>
+  <si>
+    <t>{{noi_dung}}</t>
   </si>
 </sst>
 </file>
@@ -261,7 +264,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="9"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -437,6 +440,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -457,21 +475,6 @@
     </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1022,7 +1025,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1051,16 +1054,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
       <c r="I1" s="1"/>
       <c r="J1" s="33" t="s">
         <v>32</v>
@@ -1073,17 +1076,17 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
       <c r="J2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1151,15 +1154,15 @@
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="40"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
       <c r="J8" s="10"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="5"/>
@@ -1171,15 +1174,15 @@
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="42"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="47"/>
       <c r="L9" s="11"/>
       <c r="M9" s="12"/>
       <c r="N9" s="13"/>
@@ -1193,15 +1196,15 @@
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="40"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="9" t="s">
         <v>12</v>
       </c>
@@ -1218,15 +1221,15 @@
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="34" t="s">
         <v>31</v>
       </c>
@@ -1244,7 +1247,9 @@
         <v>14</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="48"/>
+      <c r="C12" s="48" t="s">
+        <v>35</v>
+      </c>
       <c r="D12" s="48"/>
       <c r="E12" s="48"/>
       <c r="F12" s="48"/>
@@ -1263,22 +1268,22 @@
       <c r="T12" s="5"/>
     </row>
     <row r="13" spans="1:20" s="20" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44" t="s">
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44" t="s">
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="44"/>
+      <c r="J13" s="37"/>
       <c r="K13" s="18"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
@@ -1291,14 +1296,14 @@
       <c r="T13" s="5"/>
     </row>
     <row r="14" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44" t="s">
+      <c r="B14" s="37"/>
+      <c r="C14" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="45"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="21" t="s">
         <v>20</v>
       </c>
@@ -1326,14 +1331,14 @@
       <c r="D15" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44" t="s">
+      <c r="F15" s="37"/>
+      <c r="G15" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="45"/>
+      <c r="H15" s="38"/>
       <c r="I15" s="20" t="s">
         <v>24</v>
       </c>
@@ -1362,10 +1367,10 @@
       <c r="A19" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="47"/>
+      <c r="D19" s="40"/>
       <c r="H19" s="30"/>
       <c r="P19" s="31"/>
     </row>
@@ -1374,6 +1379,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="C19:D19"/>
@@ -1383,12 +1394,6 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
   </mergeCells>
   <pageMargins left="0.12" right="0" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="11" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
